--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -1680,7 +1680,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">EVERYONE MUST USE THE MEET EVEN THOUGH IT'S LOCAL - RX IS HARD TO FIND IN HOSPITAL                   </t>
+          <t xml:space="preserve">*EVERYONE MUST USE THE MEET EVEN THOUGH IT'S LOCAL - RX IS HARD TO FIND IN HOSPITAL                   </t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -1175,7 +1175,12 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1255,11 +1260,7 @@
           <t>Justin Learned</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -2578,13 +2578,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2630,7 +2629,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -2695,12 +2694,13 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2884,13 +2884,12 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2940,12 +2939,13 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3101,13 +3101,12 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Ace</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3145,12 +3144,13 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Ace</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3192,13 +3192,12 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3233,9 +3232,22 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>25)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -3304,11 +3304,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3350,7 +3346,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3387,7 +3383,11 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -2714,7 +2714,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2777,7 +2777,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2840,7 +2840,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>ANDY LIQUOR STORE - MUKWONAGO</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2903,7 +2903,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MARATHON - LAKE VILLA</t>
+          <t>411 MAIN ST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>36809 NORTH ROUTE 83</t>
+          <t>https://maps.app.goo.gl/PrnTLtbRXx7W2zQg8</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3012,11 +3012,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/AFwDzGXuiYz3oZbS9</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3070,13 +3066,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -3117,10 +3121,14 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3162,11 +3170,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>MARATHON - ANTIOCH</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -3209,11 +3213,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>24480 W GRASS LAKE RD</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3257,11 +3257,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/DqdxWMC8Zv9Rysoa7</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3314,22 +3310,9 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3358,16 +3341,8 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -598,7 +598,11 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Optima Oil Change</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -1974,12 +1974,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>@ Store, Optima, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2043,12 +2043,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2562,10 +2562,14 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2613,7 +2617,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2665,7 +2669,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2734,7 +2738,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2797,7 +2801,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2860,7 +2864,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2923,7 +2927,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>MIchael N</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2979,7 +2983,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MIchael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3023,21 +3027,9 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
@@ -3142,7 +3134,11 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3184,7 +3180,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3227,7 +3223,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3269,7 +3265,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>AYRA'S LIQUOR &amp; CIGAR - KENOSHA</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3296,7 +3296,11 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1900 22ND AVE</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3323,7 +3327,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/d27we3q78ZcM2bW96</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3371,6 +3379,201 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -571,7 +571,11 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Optima Oil Change</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -598,11 +602,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Optima Oil Change</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3267,7 +3267,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>AYRA'S LIQUOR &amp; CIGAR - KENOSHA</t>
+          <t>CONTACTD IS AKIL-THE SELLER</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1900 22ND AVE</t>
+          <t>AYRA'S LIQUOR &amp; CIGAR - KENOSHA</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/d27we3q78ZcM2bW96</t>
+          <t>1900 22ND AVE</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3362,7 +3362,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/d27we3q78ZcM2bW96</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3392,21 +3396,9 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3433,18 +3425,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Driver,
-Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3471,9 +3462,22 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3526,11 +3530,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3574,6 +3574,37 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -3069,12 +3069,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Optima available, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -1091,7 +1091,11 @@
           <t>Greg</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -1491,13 +1491,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Red Van</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1551,15 +1551,10 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1599,7 +1594,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1646,7 +1641,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1701,7 +1696,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1756,7 +1751,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1807,7 +1802,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1870,7 +1865,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1929,7 +1924,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2002,7 +1997,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2064,16 +2059,8 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2188,7 +2175,11 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
@@ -2254,7 +2245,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2313,7 +2304,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2374,11 +2365,7 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2494,10 +2494,14 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -2553,7 +2557,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2608,7 +2612,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2660,7 +2664,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2729,7 +2733,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2792,7 +2796,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2855,7 +2859,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>MIchael N</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2918,7 +2922,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>MIchael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2967,21 +2971,9 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -3074,7 +3066,11 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3127,7 +3123,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3171,7 +3167,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3214,7 +3210,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONTACTD IS AKIL-THE SELLER</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3258,7 +3254,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CONTACTD IS AKIL-THE SELLER</t>
+          <t>AYRA'S LIQUOR &amp; CIGAR - KENOSHA</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3289,7 +3285,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>AYRA'S LIQUOR &amp; CIGAR - KENOSHA</t>
+          <t>1900 22ND AVE</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3320,7 +3316,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1900 22ND AVE</t>
+          <t>https://maps.app.goo.gl/d27we3q78ZcM2bW96</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3353,11 +3349,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/d27we3q78ZcM2bW96</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3387,9 +3379,21 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3416,17 +3420,18 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3453,22 +3458,9 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3521,7 +3513,11 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3550,7 +3546,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3565,37 +3561,6 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,16 +1433,8 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
@@ -1557,7 +1549,11 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1602,7 +1598,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1649,7 +1645,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #876, GLENDALE - GREEN TREE</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1704,7 +1700,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>METRO #876, GLENDALE - GREEN TREE</t>
+          <t>6969 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1759,7 +1755,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>6969 N PORT WASHINGTON RD</t>
+          <t>https://goo.gl/maps/ho2n746veYC2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1810,7 +1806,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ho2n746veYC2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1873,7 +1869,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1930,11 +1926,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2002,9 +1994,21 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2065,19 +2069,15 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -2120,12 +2120,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2184,12 +2184,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2252,12 +2252,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2311,12 +2311,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2370,12 +2370,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2429,15 +2429,19 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -2489,12 +2493,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2552,12 +2556,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2607,12 +2611,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2659,12 +2663,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2728,12 +2732,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2791,12 +2795,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>MIchael N</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2854,12 +2858,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>MIchael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2915,21 +2919,9 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -3011,7 +3003,11 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -3068,7 +3064,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3123,7 +3119,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3167,7 +3163,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONTACTD IS AKIL-THE SELLER</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3210,7 +3206,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>CONTACTD IS AKIL-THE SELLER</t>
+          <t>AYRA'S LIQUOR &amp; CIGAR - KENOSHA</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3254,7 +3250,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>AYRA'S LIQUOR &amp; CIGAR - KENOSHA</t>
+          <t>1900 22ND AVE</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3285,7 +3281,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1900 22ND AVE</t>
+          <t>https://maps.app.goo.gl/d27we3q78ZcM2bW96</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3314,11 +3310,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/d27we3q78ZcM2bW96</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3348,9 +3340,21 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3381,17 +3385,18 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3418,22 +3423,9 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -3486,7 +3478,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3515,7 +3511,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3530,37 +3526,6 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -2816,7 +2816,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Milwaukee Schedule.xlsx
@@ -1716,7 +1716,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>*If Jerry's car leaves before store is over (at 12:00) Victor and Greg also leave w/ him</t>
+          <t>*If Jerry's car leaves before store is over (at 12:00) Greg also leave w/ him</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1944,95 +1944,95 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry,
+Until 12:00</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9000 W WISCONSIN AVE</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>Driver,
 Red Van,
 Ace Side</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>9000 W WISCONSIN AVE</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry,
-Until 12:00</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2395,12 +2395,13 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2458,13 +2459,12 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -2585,12 +2585,13 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2636,7 +2637,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -2701,13 +2702,12 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2891,12 +2891,13 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2934,13 +2935,12 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3084,12 +3084,13 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Ace</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3135,13 +3136,12 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Ace</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3179,12 +3179,13 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3215,22 +3216,9 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>25)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3318,11 +3306,7 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3361,11 +3345,7 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
